--- a/SuppXLS/Scen_MIG.xlsx
+++ b/SuppXLS/Scen_MIG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5706D51D-51F5-4037-AE52-DB5114F9DF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3894FC-E787-4532-B22F-5A1E09A78B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>attribute</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>*1</t>
+  </si>
+  <si>
+    <t>limtype</t>
+  </si>
+  <si>
+    <t>UP</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E11"/>
+  <dimension ref="B3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,12 +411,12 @@
     <col min="6" max="6" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -423,8 +429,11 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -437,13 +446,16 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -454,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>

--- a/SuppXLS/Scen_MIG.xlsx
+++ b/SuppXLS/Scen_MIG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3894FC-E787-4532-B22F-5A1E09A78B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A3153D-EDAF-4AE9-B181-70F86DFC7963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>attribute</t>
   </si>
@@ -39,9 +39,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>CAP_BND</t>
-  </si>
-  <si>
     <t>pset_pn</t>
   </si>
   <si>
@@ -75,10 +72,7 @@
     <t>*1</t>
   </si>
   <si>
-    <t>limtype</t>
-  </si>
-  <si>
-    <t>UP</t>
+    <t>TotalAnnualMaxCapacity</t>
   </si>
 </sst>
 </file>
@@ -396,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F11"/>
+  <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,73 +402,66 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_MIG.xlsx
+++ b/SuppXLS/Scen_MIG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A3153D-EDAF-4AE9-B181-70F86DFC7963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704205F-3006-4261-B02E-094DE46B66C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>attribute</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>TotalAnnualMaxCapacity</t>
+  </si>
+  <si>
+    <t>val_cond</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E11"/>
+  <dimension ref="B3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,12 +410,12 @@
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -422,8 +428,11 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -436,13 +445,16 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -453,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>

--- a/SuppXLS/Scen_MIG.xlsx
+++ b/SuppXLS/Scen_MIG.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\py_projects\GitHub\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704205F-3006-4261-B02E-094DE46B66C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD9F555-D7FE-4730-BE82-E591A254285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="demands" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -398,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -480,4 +481,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D54CF8E-CB76-44AC-8683-9DD84E84923B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SuppXLS/Scen_MIG.xlsx
+++ b/SuppXLS/Scen_MIG.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\py_projects\GitHub\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704205F-3006-4261-B02E-094DE46B66C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C546E385-6541-42E6-8D2F-A66BDB59BC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="demands" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -398,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,4 +481,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6B480-7794-4E83-8D7E-07856918D468}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SuppXLS/Scen_MIG.xlsx
+++ b/SuppXLS/Scen_MIG.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\py_projects\GitHub\osemosys_India\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD9F555-D7FE-4730-BE82-E591A254285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099C2A8C-D72D-458F-B768-C7F803F25E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="demands" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -399,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,16 +480,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D54CF8E-CB76-44AC-8683-9DD84E84923B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>